--- a/第三反復/振り返り/74_開発体験シート.xlsx
+++ b/第三反復/振り返り/74_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044F171-0AF9-40E7-B485-21CC531D786D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4E0ED5-85A7-4630-8618-5F4F99CC07AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -609,6 +609,145 @@
       <t>ダイジ</t>
     </rPh>
     <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>話す内容を端的にまとめることが大事だと感じた。</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての反復を通して、最終的に改善された部分が分かった。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多少の遅れが出始めた時点で考える必要があると感じた。</t>
+    <rPh sb="0" eb="2">
+      <t>タショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デハジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い点は継続して作業ができた。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのような動きをするメソッドか分かりやすく書くべきだと感じた。</t>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性をなるべく減らすことが重要であることが分かった。</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かりやすい言葉でなるべく単純に書くことが大事だと感じた。</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ダイジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
       <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1808,7 +1947,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,7 +2032,9 @@
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68"/>
@@ -1941,7 +2082,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
@@ -2006,7 +2149,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
@@ -2299,7 +2444,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="54" t="s">
@@ -2427,13 +2574,15 @@
         <v>56</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
@@ -2456,7 +2605,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
@@ -2477,7 +2628,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
@@ -2498,7 +2651,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
